--- a/barnehage/kgdata.xlsx
+++ b/barnehage/kgdata.xlsx
@@ -77,7 +77,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -93,6 +93,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -372,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -381,38 +384,38 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>foresatt_id</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>foresatt_navn</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>foresatt_adresse</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>foresatt_tlfnr</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>foresatt_pnr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -420,66 +423,26 @@
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Adam Eliassen</t>
+          <t>Jabir Gutale</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Tyrkiaveien 10</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93972912</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18110593315</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Jabir Gutale</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
           <t>Nordkappgata 19</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="E3" t="n">
         <v>93963924</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F3" t="n">
         <v>19110595605</v>
       </c>
     </row>
@@ -503,29 +466,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>barnehage_id</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>barnehage_navn</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>barnehage_antall_plasser</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>barnehage_ledige_plasser</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
@@ -537,14 +500,14 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="n">
+      <c r="A3" s="7" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="n">
@@ -556,14 +519,14 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="n">
+      <c r="A4" s="7" t="n">
         <v>3</v>
       </c>
       <c r="B4" t="n">
@@ -575,14 +538,14 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E4" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="n">
+      <c r="A5" s="7" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
@@ -594,14 +557,14 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="n">
+      <c r="A6" s="7" t="n">
         <v>5</v>
       </c>
       <c r="B6" t="n">
@@ -613,14 +576,14 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="n">
+      <c r="A7" s="7" t="n">
         <v>6</v>
       </c>
       <c r="B7" t="n">
@@ -632,14 +595,14 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="n">
+      <c r="A8" s="7" t="n">
         <v>7</v>
       </c>
       <c r="B8" t="n">
@@ -651,14 +614,14 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="n">
+      <c r="A9" s="7" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
@@ -670,14 +633,14 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E9" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="n">
+      <c r="A10" s="7" t="n">
         <v>9</v>
       </c>
       <c r="B10" t="n">
@@ -689,14 +652,14 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="n">
+      <c r="A11" s="7" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="n">
@@ -708,14 +671,14 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="n">
+      <c r="A12" s="7" t="n">
         <v>11</v>
       </c>
       <c r="B12" t="n">
@@ -727,14 +690,14 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="n">
+      <c r="A13" s="7" t="n">
         <v>12</v>
       </c>
       <c r="B13" t="n">
@@ -746,14 +709,14 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="n">
+      <c r="A14" s="7" t="n">
         <v>13</v>
       </c>
       <c r="B14" t="n">
@@ -765,14 +728,14 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="n">
+      <c r="A15" s="7" t="n">
         <v>14</v>
       </c>
       <c r="B15" t="n">
@@ -784,14 +747,14 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="n">
+      <c r="A16" s="7" t="n">
         <v>15</v>
       </c>
       <c r="B16" t="n">
@@ -803,14 +766,14 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E16" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="n">
+      <c r="A17" s="7" t="n">
         <v>16</v>
       </c>
       <c r="B17" t="n">
@@ -822,14 +785,14 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="n">
+      <c r="A18" s="7" t="n">
         <v>17</v>
       </c>
       <c r="B18" t="n">
@@ -841,14 +804,14 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="E18" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="n">
+      <c r="A19" s="7" t="n">
         <v>18</v>
       </c>
       <c r="B19" t="n">
@@ -860,14 +823,14 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E19" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="n">
+      <c r="A20" s="7" t="n">
         <v>19</v>
       </c>
       <c r="B20" t="n">
@@ -879,14 +842,14 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="n">
+      <c r="A21" s="7" t="n">
         <v>20</v>
       </c>
       <c r="B21" t="n">
@@ -898,14 +861,14 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="n">
+      <c r="A22" s="7" t="n">
         <v>21</v>
       </c>
       <c r="B22" t="n">
@@ -917,14 +880,14 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="n">
+      <c r="A23" s="7" t="n">
         <v>22</v>
       </c>
       <c r="B23" t="n">
@@ -936,14 +899,14 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="n">
+      <c r="A24" s="7" t="n">
         <v>23</v>
       </c>
       <c r="B24" t="n">
@@ -955,14 +918,14 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="n">
+      <c r="A25" s="7" t="n">
         <v>24</v>
       </c>
       <c r="B25" t="n">
@@ -974,14 +937,14 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E25" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="n">
+      <c r="A26" s="7" t="n">
         <v>25</v>
       </c>
       <c r="B26" t="n">
@@ -993,14 +956,14 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="n">
+      <c r="A27" s="7" t="n">
         <v>26</v>
       </c>
       <c r="B27" t="n">
@@ -1012,14 +975,14 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E27" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="n">
+      <c r="A28" s="7" t="n">
         <v>27</v>
       </c>
       <c r="B28" t="n">
@@ -1031,14 +994,14 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="n">
+      <c r="A29" s="7" t="n">
         <v>28</v>
       </c>
       <c r="B29" t="n">
@@ -1050,14 +1013,14 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="E29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="n">
+      <c r="A30" s="7" t="n">
         <v>29</v>
       </c>
       <c r="B30" t="n">
@@ -1069,14 +1032,14 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E30" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="n">
+      <c r="A31" s="7" t="n">
         <v>30</v>
       </c>
       <c r="B31" t="n">
@@ -1088,14 +1051,14 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E31" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="n">
+      <c r="A32" s="7" t="n">
         <v>31</v>
       </c>
       <c r="B32" t="n">
@@ -1107,14 +1070,14 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E32" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="n">
+      <c r="A33" s="7" t="n">
         <v>32</v>
       </c>
       <c r="B33" t="n">
@@ -1126,14 +1089,14 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E33" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="n">
+      <c r="A34" s="7" t="n">
         <v>33</v>
       </c>
       <c r="B34" t="n">
@@ -1145,14 +1108,14 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="n">
+      <c r="A35" s="7" t="n">
         <v>34</v>
       </c>
       <c r="B35" t="n">
@@ -1164,14 +1127,14 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="n">
+      <c r="A36" s="7" t="n">
         <v>35</v>
       </c>
       <c r="B36" t="n">
@@ -1183,14 +1146,14 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="E36" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="n">
+      <c r="A37" s="7" t="n">
         <v>36</v>
       </c>
       <c r="B37" t="n">
@@ -1202,14 +1165,14 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E37" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="n">
+      <c r="A38" s="7" t="n">
         <v>37</v>
       </c>
       <c r="B38" t="n">
@@ -1221,14 +1184,14 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="n">
+      <c r="A39" s="7" t="n">
         <v>38</v>
       </c>
       <c r="B39" t="n">
@@ -1240,14 +1203,14 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="E39" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="n">
+      <c r="A40" s="7" t="n">
         <v>39</v>
       </c>
       <c r="B40" t="n">
@@ -1259,14 +1222,14 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E40" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="n">
+      <c r="A41" s="7" t="n">
         <v>40</v>
       </c>
       <c r="B41" t="n">
@@ -1278,14 +1241,14 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="E41" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="n">
+      <c r="A42" s="7" t="n">
         <v>41</v>
       </c>
       <c r="B42" t="n">
@@ -1297,14 +1260,14 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="E42" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="n">
+      <c r="A43" s="7" t="n">
         <v>42</v>
       </c>
       <c r="B43" t="n">
@@ -1316,14 +1279,14 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E43" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="n">
+      <c r="A44" s="7" t="n">
         <v>43</v>
       </c>
       <c r="B44" t="n">
@@ -1335,14 +1298,14 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="n">
+      <c r="A45" s="7" t="n">
         <v>44</v>
       </c>
       <c r="B45" t="n">
@@ -1354,14 +1317,14 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="E45" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="n">
+      <c r="A46" s="7" t="n">
         <v>45</v>
       </c>
       <c r="B46" t="n">
@@ -1373,14 +1336,14 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E46" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="n">
+      <c r="A47" s="7" t="n">
         <v>46</v>
       </c>
       <c r="B47" t="n">
@@ -1392,14 +1355,14 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E47" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="n">
+      <c r="A48" s="7" t="n">
         <v>47</v>
       </c>
       <c r="B48" t="n">
@@ -1411,14 +1374,14 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E48" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="n">
+      <c r="A49" s="7" t="n">
         <v>48</v>
       </c>
       <c r="B49" t="n">
@@ -1430,14 +1393,14 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E49" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="n">
+      <c r="A50" s="7" t="n">
         <v>49</v>
       </c>
       <c r="B50" t="n">
@@ -1449,14 +1412,14 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="n">
+      <c r="A51" s="7" t="n">
         <v>50</v>
       </c>
       <c r="B51" t="n">
@@ -1468,14 +1431,14 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E51" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="n">
+      <c r="A52" s="7" t="n">
         <v>51</v>
       </c>
       <c r="B52" t="n">
@@ -1487,14 +1450,14 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="E52" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="n">
+      <c r="A53" s="7" t="n">
         <v>52</v>
       </c>
       <c r="B53" t="n">
@@ -1506,14 +1469,14 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E53" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="n">
+      <c r="A54" s="7" t="n">
         <v>53</v>
       </c>
       <c r="B54" t="n">
@@ -1525,14 +1488,14 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E54" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="n">
+      <c r="A55" s="7" t="n">
         <v>54</v>
       </c>
       <c r="B55" t="n">
@@ -1544,14 +1507,14 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E55" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="n">
+      <c r="A56" s="7" t="n">
         <v>55</v>
       </c>
       <c r="B56" t="n">
@@ -1563,14 +1526,14 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="n">
+      <c r="A57" s="7" t="n">
         <v>56</v>
       </c>
       <c r="B57" t="n">
@@ -1582,14 +1545,14 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E57" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="n">
+      <c r="A58" s="7" t="n">
         <v>57</v>
       </c>
       <c r="B58" t="n">
@@ -1601,14 +1564,14 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E58" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="n">
+      <c r="A59" s="7" t="n">
         <v>58</v>
       </c>
       <c r="B59" t="n">
@@ -1620,14 +1583,14 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="E59" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="n">
+      <c r="A60" s="7" t="n">
         <v>59</v>
       </c>
       <c r="B60" t="n">
@@ -1639,14 +1602,14 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E60" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="n">
+      <c r="A61" s="7" t="n">
         <v>60</v>
       </c>
       <c r="B61" t="n">
@@ -1658,14 +1621,14 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="E61" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="n">
+      <c r="A62" s="7" t="n">
         <v>61</v>
       </c>
       <c r="B62" t="n">
@@ -1677,14 +1640,14 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="n">
+      <c r="A63" s="7" t="n">
         <v>62</v>
       </c>
       <c r="B63" t="n">
@@ -1696,14 +1659,14 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="E63" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="n">
+      <c r="A64" s="7" t="n">
         <v>63</v>
       </c>
       <c r="B64" t="n">
@@ -1715,14 +1678,14 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E64" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="n">
+      <c r="A65" s="7" t="n">
         <v>64</v>
       </c>
       <c r="B65" t="n">
@@ -1734,14 +1697,14 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="E65" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="n">
+      <c r="A66" s="7" t="n">
         <v>65</v>
       </c>
       <c r="B66" t="n">
@@ -1753,14 +1716,14 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E66" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="n">
+      <c r="A67" s="7" t="n">
         <v>66</v>
       </c>
       <c r="B67" t="n">
@@ -1772,14 +1735,14 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E67" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="n">
+      <c r="A68" s="7" t="n">
         <v>67</v>
       </c>
       <c r="B68" t="n">
@@ -1791,14 +1754,14 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E68" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="n">
+      <c r="A69" s="7" t="n">
         <v>68</v>
       </c>
       <c r="B69" t="n">
@@ -1810,14 +1773,14 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="E69" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="n">
+      <c r="A70" s="7" t="n">
         <v>69</v>
       </c>
       <c r="B70" t="n">
@@ -1829,14 +1792,14 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E70" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="n">
+      <c r="A71" s="7" t="n">
         <v>70</v>
       </c>
       <c r="B71" t="n">
@@ -1848,14 +1811,14 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E71" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="n">
+      <c r="A72" s="7" t="n">
         <v>71</v>
       </c>
       <c r="B72" t="n">
@@ -1867,14 +1830,14 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E72" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="n">
+      <c r="A73" s="7" t="n">
         <v>72</v>
       </c>
       <c r="B73" t="n">
@@ -1886,14 +1849,14 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="E73" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="n">
+      <c r="A74" s="7" t="n">
         <v>73</v>
       </c>
       <c r="B74" t="n">
@@ -1905,14 +1868,14 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="n">
+      <c r="A75" s="7" t="n">
         <v>74</v>
       </c>
       <c r="B75" t="n">
@@ -1924,14 +1887,14 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="E75" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="n">
+      <c r="A76" s="7" t="n">
         <v>75</v>
       </c>
       <c r="B76" t="n">
@@ -1943,14 +1906,14 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="E76" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="n">
+      <c r="A77" s="7" t="n">
         <v>76</v>
       </c>
       <c r="B77" t="n">
@@ -1962,14 +1925,14 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E77" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="n">
+      <c r="A78" s="7" t="n">
         <v>77</v>
       </c>
       <c r="B78" t="n">
@@ -1981,14 +1944,14 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="E78" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="n">
+      <c r="A79" s="7" t="n">
         <v>78</v>
       </c>
       <c r="B79" t="n">
@@ -2000,14 +1963,14 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E79" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="n">
+      <c r="A80" s="7" t="n">
         <v>79</v>
       </c>
       <c r="B80" t="n">
@@ -2019,14 +1982,14 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="n">
+      <c r="A81" s="7" t="n">
         <v>80</v>
       </c>
       <c r="B81" t="n">
@@ -2038,14 +2001,14 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E81" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="n">
+      <c r="A82" s="7" t="n">
         <v>81</v>
       </c>
       <c r="B82" t="n">
@@ -2057,14 +2020,14 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="E82" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="n">
+      <c r="A83" s="7" t="n">
         <v>82</v>
       </c>
       <c r="B83" t="n">
@@ -2076,14 +2039,14 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E83" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="n">
+      <c r="A84" s="7" t="n">
         <v>83</v>
       </c>
       <c r="B84" t="n">
@@ -2095,10 +2058,10 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="E84" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2112,7 +2075,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,38 +2084,25 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>barn_id</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>barn_pnr</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Eliassen Ertokanov</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="C2" t="n">
         <v>19110595604</v>
       </c>
     </row>
@@ -2167,7 +2117,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2176,132 +2126,95 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>sok_id</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>foresatt_1</t>
         </is>
       </c>
-      <c r="D1" s="6" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>foresatt_2</t>
         </is>
       </c>
-      <c r="E1" s="6" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>barn_1</t>
         </is>
       </c>
-      <c r="F1" s="6" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>fr_barnevern</t>
         </is>
       </c>
-      <c r="G1" s="6" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>fr_sykd_familie</t>
         </is>
       </c>
-      <c r="H1" s="6" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>fr_sykd_barn</t>
         </is>
       </c>
-      <c r="I1" s="6" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>fr_annet</t>
         </is>
       </c>
-      <c r="J1" s="6" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>barnehager_prioritert</t>
         </is>
       </c>
-      <c r="K1" s="6" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>sosken__i_barnehagen</t>
         </is>
       </c>
-      <c r="L1" s="6" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>tidspunkt_oppstart</t>
         </is>
       </c>
-      <c r="M1" s="6" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>brutto_inntekt</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="n">
+      <c r="A2" s="7" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
-          <t>2024-11-18</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>150000</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
           <t>2024-11-20</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M2" t="n">
         <v>1000000</v>
       </c>
     </row>
